--- a/WGRDBESstockCoord/format/RCEF_v14_suggestions/RCEF_tv14.4_example.xlsx
+++ b/WGRDBESstockCoord/format/RCEF_v14_suggestions/RCEF_tv14.4_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/format/RCEF_v14_suggestions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{43BB9310-214E-4E4D-B485-1EA2D667F8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13F8515A-0C07-47EF-BA83-797E37EC639E}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{43BB9310-214E-4E4D-B485-1EA2D667F8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6598A4BA-F554-49F4-97EA-C94AA0D1E04D}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="100">
   <si>
     <t>year</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>27.3.a; 27.4; 27.7.e</t>
+  </si>
+  <si>
+    <t>areaValue</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
     <tableColumn id="23" xr3:uid="{82EDA9D2-A157-42A1-9C33-03297B6C66AC}" name="SeasonType"/>
     <tableColumn id="8" xr3:uid="{A281DF07-4D64-4790-9E56-493560775560}" name="seasonValue"/>
     <tableColumn id="24" xr3:uid="{3B2E6466-D3B3-4DC2-B36D-D3C8557FD3E9}" name="areaType"/>
-    <tableColumn id="9" xr3:uid="{1EDC5CFB-6AEB-40D2-9FF7-8F3D07AC5B95}" name="area"/>
+    <tableColumn id="9" xr3:uid="{1EDC5CFB-6AEB-40D2-9FF7-8F3D07AC5B95}" name="areaValue"/>
     <tableColumn id="10" xr3:uid="{6C932656-70F1-484C-BC75-094F8D81D1DD}" name="fisheriesManagementUnit"/>
     <tableColumn id="11" xr3:uid="{D4FC1DFA-E375-4874-A78A-711AE490ABFD}" name="metier6" dataDxfId="11"/>
     <tableColumn id="12" xr3:uid="{62E95919-F445-4C4F-B32D-3083CF4C9DAE}" name="fleet" dataDxfId="10"/>
@@ -1031,8 +1034,8 @@
   </sheetPr>
   <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1113,8 +1116,8 @@
       <c r="J2" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>23</v>
+      <c r="K2" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -8134,6 +8137,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C227E214A244A84FBAA5152CDD6EAC80" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9202a1ecfe0ad2ec696e0f91981ba8e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a46f65cc92525120babafc4c69c5d04c" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -8310,28 +8334,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60664607-CBCD-4AFC-843C-4CFA04400440}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718E005C-88DE-4F66-B59B-F1C1FF5E3D2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD780A6C-FDDC-4177-9817-26C904DC3A4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8348,29 +8376,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718E005C-88DE-4F66-B59B-F1C1FF5E3D2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60664607-CBCD-4AFC-843C-4CFA04400440}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>